--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="316">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T18:33:54+00:00</t>
+    <t>2024-08-07T20:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -612,6 +612,18 @@
     &lt;code value="person-centered"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>Goal.category:goalDomain</t>
+  </si>
+  <si>
+    <t>goalDomain</t>
+  </si>
+  <si>
+    <t>Goal domain</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-goal-domains-example</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -1314,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1348,7 +1360,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.8203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.4296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3148,9 +3160,11 @@
         <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3162,7 +3176,7 @@
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3174,16 +3188,14 @@
         <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3208,13 +3220,11 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3232,13 +3242,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3250,18 +3260,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3269,13 +3279,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
@@ -3287,16 +3297,16 @@
         <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3321,13 +3331,13 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3345,10 +3355,10 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3360,21 +3370,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3397,17 +3407,19 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3432,13 +3444,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3456,7 +3468,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3471,21 +3483,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3508,17 +3520,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3543,32 +3555,34 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -3580,25 +3594,23 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3619,17 +3631,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3654,31 +3666,29 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3699,26 +3709,28 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>87</v>
@@ -3727,22 +3739,20 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3791,19 +3801,19 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3812,15 +3822,15 @@
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3831,10 +3841,10 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
@@ -3843,16 +3853,20 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3900,25 +3914,25 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3926,21 +3940,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3952,17 +3966,15 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4011,25 +4023,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4044,7 +4056,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>249</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4057,26 +4069,24 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4124,7 +4134,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4142,7 +4152,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4150,33 +4160,33 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>254</v>
@@ -4184,8 +4194,12 @@
       <c r="M26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4209,49 +4223,49 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4259,10 +4273,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4285,17 +4299,15 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4323,10 +4335,10 @@
         <v>181</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4344,7 +4356,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4353,7 +4365,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4370,10 +4382,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4387,7 +4399,7 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4396,18 +4408,18 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4431,10 +4443,10 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4455,7 +4467,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4464,7 +4476,7 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
@@ -4476,15 +4488,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4498,7 +4510,7 @@
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
@@ -4507,18 +4519,18 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4566,7 +4578,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4587,15 +4599,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4615,19 +4627,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4677,7 +4689,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4698,7 +4710,7 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -4714,31 +4726,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4809,15 +4821,15 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4825,33 +4837,33 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>289</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4899,13 +4911,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
@@ -4917,18 +4929,18 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4951,19 +4963,17 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5012,7 +5022,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5027,21 +5037,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5064,19 +5074,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>297</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5101,13 +5111,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5125,7 +5135,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5140,10 +5150,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5151,10 +5161,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5177,19 +5187,19 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5214,13 +5224,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5238,7 +5248,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5262,8 +5272,121 @@
         <v>76</v>
       </c>
     </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AM35">
+  <autoFilter ref="A1:AM36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5273,7 +5396,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T20:05:12+00:00</t>
+    <t>2024-08-08T15:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T15:53:25+00:00</t>
+    <t>2024-08-08T17:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$35</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T17:33:11+00:00</t>
+    <t>2024-08-13T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -603,27 +603,10 @@
     <t>pcoCategory</t>
   </si>
   <si>
-    <t>Person-Centered Outcomes</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://mtnlotus.com/uv/pco/CodeSystem/pco"/&gt;
-    &lt;code value="person-centered"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Goal.category:goalDomain</t>
-  </si>
-  <si>
-    <t>goalDomain</t>
-  </si>
-  <si>
-    <t>Goal domain</t>
-  </si>
-  <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-goal-domains-example</t>
+    <t>Person-Centered Outcome category</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
   </si>
   <si>
     <t>Goal.priority</t>
@@ -1326,7 +1309,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1360,7 +1343,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -2946,7 +2929,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3057,10 +3040,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>87</v>
@@ -3092,28 +3075,26 @@
         <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="2"/>
+      <c r="Z16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3160,11 +3141,9 @@
         <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3176,7 +3155,7 @@
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3188,14 +3167,16 @@
         <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3220,11 +3201,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3242,13 +3225,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3260,18 +3243,18 @@
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3279,13 +3262,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>76</v>
@@ -3297,16 +3280,16 @@
         <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3331,34 +3314,34 @@
         <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3370,21 +3353,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3407,19 +3390,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3444,31 +3425,31 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3483,21 +3464,21 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3520,17 +3501,17 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3555,34 +3536,32 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -3594,23 +3573,25 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3631,17 +3612,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3666,29 +3647,31 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3709,28 +3692,26 @@
         <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>87</v>
@@ -3739,20 +3720,22 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3801,19 +3784,19 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
@@ -3822,15 +3805,15 @@
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3841,10 +3824,10 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
@@ -3853,20 +3836,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3914,25 +3893,25 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3940,21 +3919,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3966,15 +3945,17 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4023,25 +4004,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4056,7 +4037,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>146</v>
+        <v>249</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4069,24 +4050,26 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4134,7 +4117,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4152,7 +4135,7 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4160,33 +4143,33 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>254</v>
@@ -4194,12 +4177,8 @@
       <c r="M26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4223,13 +4202,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4247,25 +4226,25 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4273,10 +4252,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4299,15 +4278,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4335,10 +4316,10 @@
         <v>181</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4356,7 +4337,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4365,7 +4346,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4382,10 +4363,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4399,7 +4380,7 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4408,18 +4389,18 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4443,10 +4424,10 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>76</v>
@@ -4467,7 +4448,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4476,7 +4457,7 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>98</v>
@@ -4488,15 +4469,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4510,7 +4491,7 @@
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
@@ -4519,18 +4500,18 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
         <v>272</v>
       </c>
+      <c r="N29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4578,7 +4559,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4599,15 +4580,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4627,19 +4608,19 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4689,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4710,7 +4691,7 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -4726,31 +4707,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4821,15 +4802,15 @@
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4837,33 +4818,33 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -4911,13 +4892,13 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
@@ -4929,18 +4910,18 @@
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4963,17 +4944,19 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5022,7 +5005,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5037,21 +5020,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5074,19 +5057,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5111,13 +5094,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5135,7 +5118,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5150,10 +5133,10 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5161,10 +5144,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5187,19 +5170,19 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5224,13 +5207,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5248,7 +5231,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5272,121 +5255,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM36">
+  <autoFilter ref="A1:AM35">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5396,7 +5266,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI34">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -911,11 +911,11 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|MedicationStatement|NutritionOrder|ServiceRequest|RiskAssessment)
+    <t xml:space="preserve">Reference(http://mtnlotus.com/uv/pco/StructureDefinition/pco-what-matters-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition-problems-health-concerns)
 </t>
   </si>
   <si>
-    <t>Issues addressed by this goal</t>
+    <t>What Matters Assessment or Condition</t>
   </si>
   <si>
     <t>The identified conditions and other health record elements that are intended to be addressed by the goal.</t>
@@ -4824,7 +4824,7 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal.xlsx
+++ b/StructureDefinition-pco-goal.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
